--- a/docs/ST3/ST3_30.07.24d_output.xlsx
+++ b/docs/ST3/ST3_30.07.24d_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731675911.73067</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731675912.7689047</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675911.73067.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675912.7689047.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>285.55</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>287.58</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-2.029999999999973</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.7100000000000001</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731675915.7441382</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731675916.487023</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675915.7441382.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675916.487023.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>287.93</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>287.59</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.3400000000000318</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731675928.1843398</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731675929.6843622</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675928.1843398.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731675929.6843622.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.59</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>289.99</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4000000000000341</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731675934.5625184</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731675935.036988</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675934.5625184.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675935.036988.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>130.97</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>130.89</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.08000000000001251</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731675936.7483282</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731675939.9335597</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675936.7483282.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675939.9335597.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.33</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>132.04</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.2900000000000205</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -799,101 +845,113 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731675937.777007</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731676019.0865874</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731675937.777007.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676019.0865874.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731675941.5562084</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731675942.8801806</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675941.5562084.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675942.8801806.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>132.3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>132.66</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -901,51 +959,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731675943.927369</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731675946.2886002</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675943.927369.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675946.2886002.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>132.74</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>133.12</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -953,51 +1017,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731675948.386742</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731675948.8650737</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675948.386742.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675948.8650737.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>133.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>133.47</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1699999999999875</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1005,51 +1075,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731675950.106444</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731675951.8378227</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675950.106444.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731675951.8378227.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>133.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>133.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1057,51 +1133,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731675955.899146</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731675956.786445</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675955.899146.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675956.786445.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6720.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6723</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>2.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1109,51 +1191,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731675956.8003812</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731675958.9916496</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675956.8003812.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675958.9916496.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6723</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6749</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-26</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -1161,51 +1249,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731675959.2697215</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731675960.2460973</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675959.2697215.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675960.2460973.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6741</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6762</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>21</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1213,51 +1307,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731675960.7626853</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731675962.0962343</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675960.7626853.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675962.0962343.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6741.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6737</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-4.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1265,51 +1365,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731675963.2071178</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731675964.9875758</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675963.2071178.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675964.9875758.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6725.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6745</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-19.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -1317,51 +1423,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731675966.7394245</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731675967.4863937</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675966.7394245.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675967.4863937.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6781</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6795.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>14.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1369,51 +1481,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731675968.543895</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731675969.0196972</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675968.543895.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675969.0196972.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6801</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6816.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>15.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1421,51 +1539,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731675974.3629935</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731675974.6377864</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675974.3629935.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731675974.6377864.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6786.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6791.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1473,51 +1597,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731675979.9106164</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731675981.7546325</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675979.9106164.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675981.7546325.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>499.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>506.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-6.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-1.3</v>
       </c>
     </row>
@@ -1525,51 +1655,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731675981.769625</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731675982.941628</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675981.769625.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675982.941628.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>506.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>505.65</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.6500000000000341</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1577,51 +1713,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731675991.2418492</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731675992.6896136</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675991.2418492.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675992.6896136.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>510.15</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>511.85</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.700000000000045</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1629,51 +1771,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731675999.2145839</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731675999.4868255</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675999.2145839.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731675999.4868255.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>510.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>511.1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1681,51 +1829,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731676000.3150783</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731676000.8158517</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731676000.3150783.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731676000.8158517.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>511.05</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>510.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1733,51 +1887,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731676001.9329803</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731676002.2274525</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676001.9329803.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676002.2274525.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1022.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1023.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1785,51 +1945,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731676002.8722432</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731676003.4210598</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676002.8722432.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676003.4210598.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1017.4</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1021.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-4.200000000000045</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -1837,51 +2003,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731676004.0053759</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731676005.8859339</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676004.0053759.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676005.8859339.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1028.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1035</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>6.400000000000091</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -1889,51 +2061,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731676010.4562685</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731676011.1527247</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676010.4562685.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676011.1527247.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1038</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1041.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1941,51 +2119,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731676013.9890149</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731676014.8552291</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676013.9890149.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676014.8552291.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1039</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1039.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1993,51 +2177,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731676016.1773477</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731676017.0440135</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676016.1773477.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676017.0440135.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1044.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2045,51 +2235,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731676017.293243</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731676018.9419749</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676017.293243.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676018.9419749.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1046.4</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1050.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>4.399999999999864</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -2097,51 +2293,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731676023.5138102</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731676024.201916</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676023.5138102.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676024.201916.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>125.14</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>124.9</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.2399999999999949</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2149,51 +2351,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731676024.2168458</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731676024.896655</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676024.2168458.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676024.896655.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>124.9</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>125.24</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.3399999999999892</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2201,51 +2409,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731676032.070591</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731676032.1952028</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676032.070591.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676032.1952028.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>125.9</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>126.06</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2253,51 +2467,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731676038.1333504</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731676039.6230826</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676038.1333504.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676039.6230826.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>127.04</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>127.3</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2305,51 +2525,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731676041.8874178</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731676043.1375086</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676041.8874178.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676043.1375086.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>127.06</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>126.86</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.2000000000000028</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2357,95 +2583,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731676045.186629</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731676045.186629.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+          <t>./test_images/GMKN1731676045.186629.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>127.48</v>
       </c>
-      <c r="J38" t="n">
-        <v>127.48</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>127.58</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731676046.3662615</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731676047.442754</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676046.3662615.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676047.442754.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>163.68</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>164.26</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2453,51 +2691,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731676047.5954154</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731676049.821112</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676047.5954154.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676049.821112.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>164.14</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>165.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>1.060000000000002</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -2505,51 +2749,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731676050.1536105</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731676051.7794259</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676050.1536105.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676051.7794259.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>164.92</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>165.02</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2557,51 +2807,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731676053.261871</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731676054.5772462</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676053.261871.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676054.5772462.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>165.5</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>165.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2609,51 +2865,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731676058.1181934</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731676062.534687</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676058.1181934.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676062.534687.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>165.9</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>167.18</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.280000000000001</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -2661,51 +2923,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731676067.7205389</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731676068.295754</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676067.7205389.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676068.295754.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>51.375</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>51.53</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.1550000000000011</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -2713,51 +2981,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731676084.8438246</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731676085.701568</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676084.8438246.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676085.701568.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>51.545</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>51.29</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.2550000000000026</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -2765,95 +3039,107 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731676087.7807462</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731676087.7807462.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+          <t>./test_images/MAGN1731676087.7807462.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>51.42</v>
       </c>
-      <c r="J46" t="n">
-        <v>51.42</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>51.51</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.08999999999999631</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731676088.8227487</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731676089.3656673</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676088.8227487.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676089.3656673.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1407.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>4.800000000000182</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2861,51 +3147,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731676091.3194988</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731676092.7571008</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676091.3194988.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676092.7571008.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1422.6</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1418</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-4.599999999999909</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2913,51 +3205,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731676100.7627897</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731676102.4896188</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676100.7627897.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676102.4896188.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1421</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1422</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2965,51 +3263,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731676103.775071</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731676104.438577</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676103.775071.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676104.438577.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1418.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1418</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3017,51 +3321,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731676109.824537</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731676110.3648667</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676109.824537.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676110.3648667.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>60.03</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>59.64</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -3069,51 +3379,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731676112.6853423</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731676113.4529753</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676112.6853423.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676113.4529753.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>60.37</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>60.4</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3121,51 +3437,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731676114.031158</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731676114.9086478</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676114.031158.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676114.9086478.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>60.58</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>60.45</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -3173,51 +3495,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731676119.2592988</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731676120.8930764</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676119.2592988.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676120.8930764.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>60.8</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>60.72</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3225,51 +3553,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731676122.8713381</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731676125.3368814</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676122.8713381.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676125.3368814.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>60.92</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>60.84</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3277,51 +3611,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731676128.015405</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731676128.4568489</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676128.015405.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676128.4568489.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>60.84</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>60.9</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.05999999999999517</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3329,51 +3669,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731676130.37437</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731676130.99299</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676130.37437.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676130.99299.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>60.72</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>60.79</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.07000000000000028</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3381,51 +3727,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731676134.451371</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731676139.7049716</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731676134.451371.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731676139.7049716.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.3</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>56.67</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -3433,51 +3785,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731676141.1186786</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731676141.844647</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731676141.1186786.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731676141.844647.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>57.2</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>57.37</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1699999999999946</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3485,51 +3843,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731676148.9940724</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731676152.0686898</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731676148.9940724.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731676152.0686898.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>56.86</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>56.81</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3537,51 +3901,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731676153.354723</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731676156.9217224</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676153.354723.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676156.9217224.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>140.98</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>141.18</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2000000000000171</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3589,51 +3959,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731676162.078044</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731676163.0221756</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676162.078044.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676163.0221756.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>141.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>141.58</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3641,51 +4017,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731676165.4420633</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731676169.5097802</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676165.4420633.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676169.5097802.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>141.44</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>142.1</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.6599999999999966</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -3693,51 +4075,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731676169.9787967</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731676171.3145962</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676169.9787967.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676171.3145962.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>141.86</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>141.08</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.7800000000000011</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -3745,95 +4133,107 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731676172.1406233</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731676172.1406233.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731676172.1406233.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>141.24</v>
       </c>
-      <c r="J65" t="n">
-        <v>141.24</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>141.2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.04000000000002046</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731676173.8730774</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731676174.3455703</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676173.8730774.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676174.3455703.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>51.61</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>52.12</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.509999999999998</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.9900000000000001</v>
       </c>
     </row>
@@ -3841,51 +4241,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731676175.6244855</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731676177.2927868</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676175.6244855.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676177.2927868.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>52.59</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>52.44</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -3893,51 +4299,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731676181.278801</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731676182.1058056</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676181.278801.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676182.1058056.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>53.7</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>54.13</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.4299999999999997</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -3945,51 +4357,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731676191.136361</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731676194.6732407</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676191.136361.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676194.6732407.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>53.94</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>53.98</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3997,95 +4415,107 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731676195.6313787</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731676195.6313787.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+          <t>./test_images/ABIO1731676195.6313787.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>53.94</v>
       </c>
-      <c r="J70" t="n">
-        <v>53.94</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>54.05</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731676196.58885</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731676198.308649</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731676196.58885.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731676198.308649.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>367.23</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>364.3</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>2.930000000000007</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -4093,51 +4523,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731676199.5189865</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731676200.6352975</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731676199.5189865.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731676200.6352975.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>367.2</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>368.52</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>1.319999999999993</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4145,51 +4581,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731676204.498684</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731676209.181962</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731676204.498684.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731676209.181962.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>369.55</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>372.54</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>2.990000000000009</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -4197,51 +4639,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731676218.029994</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731676218.594183</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676218.029994.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676218.594183.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.09588000000000001</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.09618</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.0002999999999999947</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4249,51 +4697,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731676220.2425075</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731676221.011946</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676220.2425075.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676221.011946.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.09616000000000001</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>0.09646</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.0002999999999999947</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -4301,51 +4755,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731676221.5154133</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731676222.4339</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676221.5154133.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676222.4339.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>0.09634000000000001</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>0.09616000000000001</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.0001799999999999996</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -4353,51 +4813,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731676225.984961</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731676226.6328967</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676225.984961.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676226.6328967.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.09742000000000001</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.09718</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.0002400000000000041</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -4405,51 +4871,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731676232.13156</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731676234.424974</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676232.13156.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731676234.424974.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.09702000000000001</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.09704</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>1.999999999999225e-05</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4457,51 +4929,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731676237.3437953</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731676239.2649388</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676237.3437953.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676239.2649388.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>2979.45</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>3002.25</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-22.80000000000018</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.77</v>
       </c>
     </row>
@@ -4509,51 +4987,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731676239.2808673</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731676240.364641</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676239.2808673.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676240.364641.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>3002.25</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>3003.05</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.8000000000001819</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -4561,51 +5045,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731676244.1996737</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731676244.8356254</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676244.1996737.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676244.8356254.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>3002.2</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>3007.75</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>5.550000000000182</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -4613,51 +5103,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731676246.3859265</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731676247.5332391</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676246.3859265.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676247.5332391.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>3013.45</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>3011.5</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-1.949999999999818</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4665,51 +5161,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731676249.4582946</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731676250.0571845</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676249.4582946.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676250.0571845.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>3013.75</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>3011.45</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-2.300000000000182</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4717,51 +5219,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731676256.1320453</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731676257.7524407</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676256.1320453.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731676257.7524407.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>3012.9</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>3021</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-8.099999999999909</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -4769,95 +5277,107 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731676258.3676362</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731676258.3676362.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+          <t>./test_images/MXI1731676258.3676362.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>3016.75</v>
       </c>
-      <c r="J85" t="n">
-        <v>3016.75</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>3023.35</v>
+      </c>
+      <c r="M85" t="n">
+        <v>6.599999999999909</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731676260.3072782</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731676260.8775136</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676260.3072782.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676260.8775136.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>34.34</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>34.45</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -4865,51 +5385,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731676268.161485</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731676270.2714171</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676268.161485.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676270.2714171.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>34.75</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>34.755</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -4917,51 +5443,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731676271.6430216</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731676271.7304356</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676271.6430216.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676271.7304356.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>34.9</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>35</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4969,51 +5501,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731676277.4544463</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731676281.1671638</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676277.4544463.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676281.1671638.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>34.6</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>34.55</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -5021,51 +5559,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731676282.7782102</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731676283.7483947</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676282.7782102.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676283.7483947.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>645.8</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>648.5</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-2.700000000000045</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -5073,51 +5617,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731676283.7643511</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731676283.927754</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676283.7643511.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676283.927754.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>648.5</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>650.7</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -5125,51 +5675,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731676284.30769</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731676285.6899903</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676284.30769.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676285.6899903.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>649.9</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>649</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -5177,51 +5733,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731676289.8042495</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731676292.216149</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676289.8042495.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676292.216149.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>648.8</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>648.9</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5229,51 +5791,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731676295.3135726</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731676296.9397955</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676295.3135726.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676296.9397955.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>648.5</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>649.5</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-1</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -5281,51 +5849,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731676296.9578905</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731676297.325953</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676296.9578905.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676297.325953.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>649.5</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>649.1</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -5333,51 +5907,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731676299.5485585</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731676299.806774</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676299.5485585.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676299.806774.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>645.5</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>642.6</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>2.899999999999977</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -5385,51 +5965,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731676300.3946662</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731676300.8305635</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676300.3946662.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676300.8305635.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>644.5</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>642.5</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>2</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -5437,51 +6023,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731676302.0655246</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731676302.4876733</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676302.0655246.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/TATN1731676302.4876733.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>640.2</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>639.7</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.5</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5565,19 +6157,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28.79999999999973</v>
+        <v>-22.19999999999982</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.599999999999966</v>
+        <v>-2.774999999999977</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.97</v>
+        <v>-0.75</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.12</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="4">
@@ -5675,19 +6267,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3599999999999994</v>
+        <v>-0.2600000000000051</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05999999999999991</v>
+        <v>-0.04333333333333419</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.29</v>
+        <v>-0.21</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="9">
@@ -5719,19 +6311,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.45999999999998</v>
+        <v>-1.419999999999959</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2919999999999959</v>
+        <v>-0.2839999999999918</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.04</v>
+        <v>-1.01</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11">
@@ -5763,19 +6355,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1900000000000048</v>
+        <v>-0.0800000000000054</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03800000000000096</v>
+        <v>-0.01600000000000108</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.41</v>
+        <v>-0.21</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="13">
@@ -5851,19 +6443,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.4100000000000037</v>
+        <v>-0.3200000000000074</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1366666666666679</v>
+        <v>-0.1066666666666691</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.79</v>
+        <v>-0.61</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.26</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="17">
